--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F39853-C1AC-4EBF-B80B-EAC54DA0B78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7A2BC-6765-4466-984A-9BE95CFD9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
   <si>
     <t>email</t>
   </si>
@@ -473,7 +473,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -546,6 +546,9 @@
       <c r="G2" s="1">
         <v>36980</v>
       </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
       <c r="I2" t="b">
         <v>1</v>
       </c>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA7A2BC-6765-4466-984A-9BE95CFD9530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB021CA6-C395-4EFD-9712-8A06536FCB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>email</t>
   </si>
@@ -129,6 +129,9 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/100_31.jpg</t>
+  </si>
+  <si>
+    <t>2001-03-30</t>
   </si>
 </sst>
 </file>
@@ -183,12 +186,12 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,7 +476,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -543,8 +546,8 @@
       <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1">
-        <v>36980</v>
+      <c r="G2" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>15</v>
@@ -555,7 +558,7 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -578,8 +581,8 @@
       <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1">
-        <v>36994</v>
+      <c r="G3" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -590,7 +593,7 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -598,7 +601,7 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C4" t="s">
@@ -607,14 +610,14 @@
       <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>30</v>
       </c>
       <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
-        <v>37150</v>
+      <c r="G4" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>
@@ -625,7 +628,7 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="1" t="s">
         <v>25</v>
       </c>
     </row>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB021CA6-C395-4EFD-9712-8A06536FCB7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12583E3B-911C-49CD-9AF6-A74D65D61369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -132,6 +132,12 @@
   </si>
   <si>
     <t>2001-03-30</t>
+  </si>
+  <si>
+    <t>2001-04-13</t>
+  </si>
+  <si>
+    <t>2001-07-26</t>
   </si>
 </sst>
 </file>
@@ -476,7 +482,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -582,7 +588,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>16</v>
@@ -617,7 +623,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>15</v>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7E3ABE-2720-46AC-B824-B6CF31778CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01765CE-C67C-4B31-9537-12AB1B94C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>0375435451</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>353066b6-4bb7-4df8-8f46-88f71bf6a182</t>
+  </si>
+  <si>
+    <t>5deb962d-afd3-423d-90c2-96e3b819f597</t>
   </si>
 </sst>
 </file>
@@ -147,6 +156,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,10 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -455,142 +463,151 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A3" sqref="A1:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
         <v>21</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>24</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>17</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>25</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" t="s">
         <v>30</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>15</v>
-      </c>
-      <c r="K2" t="b">
-        <v>1</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
       </c>
+      <c r="M2" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" t="s">
         <v>28</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>16</v>
       </c>
-      <c r="K3" t="b">
+      <c r="L3" t="b">
         <v>1</v>
       </c>
-      <c r="L3" t="b">
+      <c r="M3" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E01765CE-C67C-4B31-9537-12AB1B94C128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF512C2-FC87-4036-A2E0-4DB15FDB83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
   <si>
     <t>email</t>
   </si>
@@ -95,12 +95,6 @@
     <t>phone_verified</t>
   </si>
   <si>
-    <t>$2y$10$LGoFD1eEZMUX0BGxTHYuhe.aCMFScC4UxfW40SoQVaDVH7sFA1Ex2</t>
-  </si>
-  <si>
-    <t>$2y$10$A.FxEE8Xl2XyniOJwcHEEO6CN24C429lpMSNszx8LWCn/Vke.whTa</t>
-  </si>
-  <si>
     <t>username</t>
   </si>
   <si>
@@ -138,6 +132,348 @@
   </si>
   <si>
     <t>5deb962d-afd3-423d-90c2-96e3b819f597</t>
+  </si>
+  <si>
+    <t>1aff8187-23a0-4da6-b842-1ec012d2c703</t>
+  </si>
+  <si>
+    <t>f1c1a90a-97c5-48f6-8b6d-98d6e4fc944d</t>
+  </si>
+  <si>
+    <t>da9369c6-d3a7-4c4d-8ae7-2d2256bb6d23</t>
+  </si>
+  <si>
+    <t>03b1f097-cabc-408a-a946-a25289fd1b1a</t>
+  </si>
+  <si>
+    <t>7b94a786-ecbb-47df-9477-cf18aeb1d4c4</t>
+  </si>
+  <si>
+    <t>7a774d99-0e16-497e-b78f-38027d81044a</t>
+  </si>
+  <si>
+    <t>bcbf9608-6d95-44ef-b348-fb5b50ea095c</t>
+  </si>
+  <si>
+    <t>f9601866-964e-4f8f-92a3-5e99f7f1d9cc</t>
+  </si>
+  <si>
+    <t>b3d5fd58-55e3-4920-ae44-f30abe9ac904</t>
+  </si>
+  <si>
+    <t>f11c2f3e-f723-4d6e-824e-132a1427b951</t>
+  </si>
+  <si>
+    <t>200fe7d6-d15b-4271-93fc-373b1f5f5019</t>
+  </si>
+  <si>
+    <t>26ac2229-840a-4e78-b529-61c8f1fc98b1</t>
+  </si>
+  <si>
+    <t>38dffc86-a9f4-4df2-a16a-ea334fac52df</t>
+  </si>
+  <si>
+    <t>261612ab-74d6-44e5-a5e7-21da6aa5058e</t>
+  </si>
+  <si>
+    <t>223300bc-96c3-4a96-b4cc-2eb9efb4f98f</t>
+  </si>
+  <si>
+    <t>c62fa76f-3c91-473d-847b-6fe58f82eb47</t>
+  </si>
+  <si>
+    <t>b1da226a-3ea2-41be-9c96-ba7851a7a5f2</t>
+  </si>
+  <si>
+    <t>Nurse</t>
+  </si>
+  <si>
+    <t>0987461394</t>
+  </si>
+  <si>
+    <t>0168549326</t>
+  </si>
+  <si>
+    <t>0316925496</t>
+  </si>
+  <si>
+    <t>0789465432</t>
+  </si>
+  <si>
+    <t>0816139431</t>
+  </si>
+  <si>
+    <t>0123564945</t>
+  </si>
+  <si>
+    <t>0161379465</t>
+  </si>
+  <si>
+    <t>0946851236</t>
+  </si>
+  <si>
+    <t>0948881613</t>
+  </si>
+  <si>
+    <t>0364959879</t>
+  </si>
+  <si>
+    <t>0794313226</t>
+  </si>
+  <si>
+    <t>0346457879</t>
+  </si>
+  <si>
+    <t>0945672123</t>
+  </si>
+  <si>
+    <t>0163547861</t>
+  </si>
+  <si>
+    <t>0345678721</t>
+  </si>
+  <si>
+    <t>0346862899</t>
+  </si>
+  <si>
+    <t>0975312676</t>
+  </si>
+  <si>
+    <t>$2y$10$npRBs/yI4AkoE3f8v5gZfeZnqUxJNzddkMa49NxQCI2IZ5XMUgnfa</t>
+  </si>
+  <si>
+    <t>bmarioneau0</t>
+  </si>
+  <si>
+    <t>gsidebotham1</t>
+  </si>
+  <si>
+    <t>dfriatt2</t>
+  </si>
+  <si>
+    <t>nscaife3</t>
+  </si>
+  <si>
+    <t>cleversuch4</t>
+  </si>
+  <si>
+    <t>tprout5</t>
+  </si>
+  <si>
+    <t>fpassfield6</t>
+  </si>
+  <si>
+    <t>pchalk7</t>
+  </si>
+  <si>
+    <t>wchamperlen8</t>
+  </si>
+  <si>
+    <t>tlooby9</t>
+  </si>
+  <si>
+    <t>tnowaczyka</t>
+  </si>
+  <si>
+    <t>zhasluckb</t>
+  </si>
+  <si>
+    <t>falldenc</t>
+  </si>
+  <si>
+    <t>tismirniogloud</t>
+  </si>
+  <si>
+    <t>pbambricke</t>
+  </si>
+  <si>
+    <t>ssmithiesf</t>
+  </si>
+  <si>
+    <t>ckorlatg</t>
+  </si>
+  <si>
+    <t>pmarioneau0@simplemachines.org</t>
+  </si>
+  <si>
+    <t>ksidebotham1@cargocollective.com</t>
+  </si>
+  <si>
+    <t>rfriatt2@geocities.com</t>
+  </si>
+  <si>
+    <t>cscaife3@qq.com</t>
+  </si>
+  <si>
+    <t>sleversuch4@ca.gov</t>
+  </si>
+  <si>
+    <t>eprout5@yale.edu</t>
+  </si>
+  <si>
+    <t>apassfield6@opensource.org</t>
+  </si>
+  <si>
+    <t>tchalk7@ifeng.com</t>
+  </si>
+  <si>
+    <t>ichamperlen8@jugem.jp</t>
+  </si>
+  <si>
+    <t>blooby9@nih.gov</t>
+  </si>
+  <si>
+    <t>anowaczyka@yandex.ru</t>
+  </si>
+  <si>
+    <t>mhasluckb@mashable.com</t>
+  </si>
+  <si>
+    <t>oalldenc@desdev.cn</t>
+  </si>
+  <si>
+    <t>tismirniogloud@uiuc.edu</t>
+  </si>
+  <si>
+    <t>mbambricke@rediff.com</t>
+  </si>
+  <si>
+    <t>ssmithiesf@thetimes.co.uk</t>
+  </si>
+  <si>
+    <t>akorlatg@va.gov</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Q1, TP.HCM</t>
+  </si>
+  <si>
+    <t>Q2, TP.HCM</t>
+  </si>
+  <si>
+    <t>Q3, TP.HCM</t>
+  </si>
+  <si>
+    <t>Q4, TP.HCM</t>
+  </si>
+  <si>
+    <t>Bình Tân, TP.HCM</t>
+  </si>
+  <si>
+    <t>Kiên Giang</t>
+  </si>
+  <si>
+    <t>Long An</t>
+  </si>
+  <si>
+    <t>Bình Dương</t>
+  </si>
+  <si>
+    <t>Q8, TP.HCM</t>
+  </si>
+  <si>
+    <t>Võ Bảo Sơn</t>
+  </si>
+  <si>
+    <t>Trần Đức Bình</t>
+  </si>
+  <si>
+    <t>Đàm Anh Quốc</t>
+  </si>
+  <si>
+    <t>Nguyễn Vạn Thắng</t>
+  </si>
+  <si>
+    <t>Lê Hùng Sơn</t>
+  </si>
+  <si>
+    <t>Hồ Tuấn Hoàng</t>
+  </si>
+  <si>
+    <t>Nguyễn Hữu Khang</t>
+  </si>
+  <si>
+    <t>Trần Tấn Phát</t>
+  </si>
+  <si>
+    <t>Trần Thanh Trung</t>
+  </si>
+  <si>
+    <t>Hoàng Thủy Minh</t>
+  </si>
+  <si>
+    <t>Trần Bích Quyên</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia Linh</t>
+  </si>
+  <si>
+    <t>Phan Tố Như</t>
+  </si>
+  <si>
+    <t>Trần Thanh Thanh</t>
+  </si>
+  <si>
+    <t>Ngô Yến Trâm</t>
+  </si>
+  <si>
+    <t>Nguyễn Xuân Thu</t>
+  </si>
+  <si>
+    <t>Đặng Chi Anh</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i11.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i19.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i2.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i20.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i23.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i27.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i3.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i30.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i31.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i33.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i42.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i8.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a21.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a24.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a25.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a26.jpg</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a27.jpg</t>
   </si>
 </sst>
 </file>
@@ -180,8 +516,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,14 +800,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A1:M3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="49.88671875" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.44140625" customWidth="1"/>
@@ -478,19 +816,19 @@
     <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="11" max="11" width="12.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -525,22 +863,22 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -552,7 +890,7 @@
         <v>12</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
         <v>15</v>
@@ -566,22 +904,22 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -593,7 +931,7 @@
         <v>12</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K3" t="s">
         <v>16</v>
@@ -604,6 +942,655 @@
       <c r="M3" t="b">
         <v>1</v>
       </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>129</v>
+      </c>
+      <c r="I4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+      <c r="M4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I5" t="s">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G6" t="s">
+        <v>122</v>
+      </c>
+      <c r="H6" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" t="s">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" t="b">
+        <v>1</v>
+      </c>
+      <c r="M6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="b">
+        <v>1</v>
+      </c>
+      <c r="M7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" t="s">
+        <v>133</v>
+      </c>
+      <c r="I8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="b">
+        <v>1</v>
+      </c>
+      <c r="M8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>124</v>
+      </c>
+      <c r="H9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" t="s">
+        <v>103</v>
+      </c>
+      <c r="L9" t="b">
+        <v>1</v>
+      </c>
+      <c r="M9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>67</v>
+      </c>
+      <c r="G10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H10" t="s">
+        <v>135</v>
+      </c>
+      <c r="I10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" t="b">
+        <v>1</v>
+      </c>
+      <c r="M10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" t="s">
+        <v>125</v>
+      </c>
+      <c r="H11" t="s">
+        <v>136</v>
+      </c>
+      <c r="I11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" t="s">
+        <v>104</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
+      </c>
+      <c r="M11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" t="s">
+        <v>115</v>
+      </c>
+      <c r="H12" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L12" t="b">
+        <v>1</v>
+      </c>
+      <c r="M12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>116</v>
+      </c>
+      <c r="H13" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
+      </c>
+      <c r="M13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>95</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" t="s">
+        <v>107</v>
+      </c>
+      <c r="L14" t="b">
+        <v>1</v>
+      </c>
+      <c r="M14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>96</v>
+      </c>
+      <c r="E15" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" t="s">
+        <v>140</v>
+      </c>
+      <c r="I15" t="s">
+        <v>12</v>
+      </c>
+      <c r="K15" t="s">
+        <v>107</v>
+      </c>
+      <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>119</v>
+      </c>
+      <c r="H16" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K16" t="s">
+        <v>108</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" t="s">
+        <v>142</v>
+      </c>
+      <c r="I17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K17" t="s">
+        <v>109</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="H18" t="s">
+        <v>143</v>
+      </c>
+      <c r="I18" t="s">
+        <v>102</v>
+      </c>
+      <c r="K18" t="s">
+        <v>110</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" t="s">
+        <v>128</v>
+      </c>
+      <c r="H19" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+      <c r="F20" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" t="s">
+        <v>12</v>
+      </c>
+      <c r="K20" t="s">
+        <v>111</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF512C2-FC87-4036-A2E0-4DB15FDB83EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444E515-8905-4B6E-8047-A31A6D05C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,9 +516,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -800,10 +799,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B21" sqref="A21:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,9 +1588,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7444E515-8905-4B6E-8047-A31A6D05C83C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A351C7-060D-4E22-B7E5-E715E747E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="193">
   <si>
     <t>email</t>
   </si>
@@ -474,13 +474,266 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a27.jpg</t>
+  </si>
+  <si>
+    <t>2001-04-14</t>
+  </si>
+  <si>
+    <t>2001-04-15</t>
+  </si>
+  <si>
+    <t>2001-04-16</t>
+  </si>
+  <si>
+    <t>2001-04-17</t>
+  </si>
+  <si>
+    <t>2001-04-18</t>
+  </si>
+  <si>
+    <t>2001-04-19</t>
+  </si>
+  <si>
+    <t>2001-04-20</t>
+  </si>
+  <si>
+    <t>2001-04-21</t>
+  </si>
+  <si>
+    <t>2001-04-22</t>
+  </si>
+  <si>
+    <t>2001-04-23</t>
+  </si>
+  <si>
+    <t>2001-04-24</t>
+  </si>
+  <si>
+    <t>2001-04-25</t>
+  </si>
+  <si>
+    <t>2001-04-26</t>
+  </si>
+  <si>
+    <t>2001-04-27</t>
+  </si>
+  <si>
+    <t>2001-04-28</t>
+  </si>
+  <si>
+    <t>2001-04-29</t>
+  </si>
+  <si>
+    <t>2001-04-30</t>
+  </si>
+  <si>
+    <t>education</t>
+  </si>
+  <si>
+    <t>certificate</t>
+  </si>
+  <si>
+    <t>Phó Giáo sư, Tiến sĩ</t>
+  </si>
+  <si>
+    <t>Bác sĩ</t>
+  </si>
+  <si>
+    <t>Tiến sĩ, Bác sĩ</t>
+  </si>
+  <si>
+    <t>Tiến sĩ</t>
+  </si>
+  <si>
+    <t>Phó giáo sư, Tiến sĩ, Giảng viên cao cấp</t>
+  </si>
+  <si>
+    <r>
+      <t>Đại học Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Hà Nội</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại học Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Dược Thái Bình</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Học</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> viện Quân </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>y</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại học Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Dược TP. HCM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại học Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Dược Cần Thơ</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Học</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> viện </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> dược cổ truyền Việt Nam</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đại học Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF202124"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Dược Huế</t>
+    </r>
+  </si>
+  <si>
+    <t>Đại học Y khoa Phạm Ngọc Thạch</t>
+  </si>
+  <si>
+    <t>Đại học Y khoa Vinh</t>
+  </si>
+  <si>
+    <t>Đại học Y Dược Cần Thơ</t>
+  </si>
+  <si>
+    <t> Đại học Phan Châu Trinh</t>
+  </si>
+  <si>
+    <t>Đại học Phan Châu Trinh</t>
+  </si>
+  <si>
+    <t>Đại học Y Dược Hải Phòng</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Bác sĩ từng công tác tại Bệnh viện Da liễu Trung ương
+Nguyên Trưởng phòng chỉ đạo tuyến tại Bệnh viện Da liễu Trung ương
+Đạt chứng chỉ Diploma về Da liễu tại Viện da liễu Băng Cốc - Thái Lan
+Bác sĩ thường xuyên tham gia các Hội thảo, Hội nghị Quốc tế về Da liễu</t>
+  </si>
+  <si>
+    <t>Hội viên của Hội Da liễu Đông Nam Á, Châu Á và Thế giới
+Giảng viên bộ môn Da liễu tại Đại Học Y Hà Nội</t>
+  </si>
+  <si>
+    <t>Phó Giáo sư, Tiến sĩ chuyên ngành Tai Mũi Họng
+Nguyên Trưởng khoa Tai Mũi Họng trẻ em, Bệnh viện Tai Mũi Họng Trung ương
+Trên 25 năm công tác tại Bệnh viện Tai Mũi Họng Trung ương</t>
+  </si>
+  <si>
+    <t>Bác sĩ chuyên khoa giỏi, nhiều năm kinh nghiệm.</t>
+  </si>
+  <si>
+    <t>Danh hiệu Thầy thuốc Nhân dân</t>
+  </si>
+  <si>
+    <t>Thực tập và nghiên cứu tại Đại học Y Shimane Nhật Bản dưới sự dẫn dắt của Giáo sư Shimada – Chuyên gia hàng đầu tại Nhật Bản</t>
+  </si>
+  <si>
+    <t>Hơn 30 năm kinh nghiệm trong lĩnh vực</t>
+  </si>
+  <si>
+    <t>Từng nghiên cứu nhiều năm tại nước ngoài: Singapore, Hoa Kì</t>
+  </si>
+  <si>
+    <t>Hơn 10 năm kinh nghiệm trong lĩnh vực</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -492,6 +745,25 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -799,27 +1071,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B21" sqref="A21:XFD27"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.88671875" customWidth="1"/>
+    <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.77734375" customWidth="1"/>
     <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.77734375" customWidth="1"/>
+    <col min="16" max="16" width="36.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -859,8 +1133,17 @@
       <c r="M1" t="s">
         <v>18</v>
       </c>
+      <c r="N1" t="s">
+        <v>163</v>
+      </c>
+      <c r="O1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P1" t="s">
+        <v>183</v>
+      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -900,8 +1183,17 @@
       <c r="M2" t="b">
         <v>1</v>
       </c>
+      <c r="N2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -942,7 +1234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -970,6 +1262,9 @@
       <c r="I4" t="s">
         <v>12</v>
       </c>
+      <c r="J4" t="s">
+        <v>146</v>
+      </c>
       <c r="K4" t="s">
         <v>16</v>
       </c>
@@ -979,8 +1274,17 @@
       <c r="M4" t="b">
         <v>1</v>
       </c>
+      <c r="N4" t="s">
+        <v>174</v>
+      </c>
+      <c r="O4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>185</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1008,6 +1312,9 @@
       <c r="I5" t="s">
         <v>102</v>
       </c>
+      <c r="J5" t="s">
+        <v>147</v>
+      </c>
       <c r="K5" t="s">
         <v>16</v>
       </c>
@@ -1017,8 +1324,17 @@
       <c r="M5" t="b">
         <v>1</v>
       </c>
+      <c r="N5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" t="s">
+        <v>184</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -1046,6 +1362,9 @@
       <c r="I6" t="s">
         <v>102</v>
       </c>
+      <c r="J6" t="s">
+        <v>148</v>
+      </c>
       <c r="K6" t="s">
         <v>16</v>
       </c>
@@ -1055,8 +1374,17 @@
       <c r="M6" t="b">
         <v>1</v>
       </c>
+      <c r="N6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O6" t="s">
+        <v>165</v>
+      </c>
+      <c r="P6" t="s">
+        <v>186</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -1084,6 +1412,9 @@
       <c r="I7" t="s">
         <v>12</v>
       </c>
+      <c r="J7" t="s">
+        <v>149</v>
+      </c>
       <c r="K7" t="s">
         <v>103</v>
       </c>
@@ -1093,8 +1424,17 @@
       <c r="M7" t="b">
         <v>1</v>
       </c>
+      <c r="N7" t="s">
+        <v>173</v>
+      </c>
+      <c r="O7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P7" t="s">
+        <v>187</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -1122,6 +1462,9 @@
       <c r="I8" t="s">
         <v>102</v>
       </c>
+      <c r="J8" t="s">
+        <v>150</v>
+      </c>
       <c r="K8" t="s">
         <v>103</v>
       </c>
@@ -1131,8 +1474,17 @@
       <c r="M8" t="b">
         <v>1</v>
       </c>
+      <c r="N8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O8" t="s">
+        <v>168</v>
+      </c>
+      <c r="P8" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1160,6 +1512,9 @@
       <c r="I9" t="s">
         <v>102</v>
       </c>
+      <c r="J9" t="s">
+        <v>151</v>
+      </c>
       <c r="K9" t="s">
         <v>103</v>
       </c>
@@ -1169,8 +1524,17 @@
       <c r="M9" t="b">
         <v>1</v>
       </c>
+      <c r="N9" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" t="s">
+        <v>166</v>
+      </c>
+      <c r="P9" t="s">
+        <v>191</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -1198,6 +1562,9 @@
       <c r="I10" t="s">
         <v>12</v>
       </c>
+      <c r="J10" t="s">
+        <v>152</v>
+      </c>
       <c r="K10" t="s">
         <v>104</v>
       </c>
@@ -1207,8 +1574,17 @@
       <c r="M10" t="b">
         <v>1</v>
       </c>
+      <c r="N10" t="s">
+        <v>176</v>
+      </c>
+      <c r="O10" t="s">
+        <v>166</v>
+      </c>
+      <c r="P10" t="s">
+        <v>188</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -1236,6 +1612,9 @@
       <c r="I11" t="s">
         <v>102</v>
       </c>
+      <c r="J11" t="s">
+        <v>153</v>
+      </c>
       <c r="K11" t="s">
         <v>104</v>
       </c>
@@ -1245,8 +1624,17 @@
       <c r="M11" t="b">
         <v>1</v>
       </c>
+      <c r="N11" t="s">
+        <v>171</v>
+      </c>
+      <c r="O11" t="s">
+        <v>166</v>
+      </c>
+      <c r="P11" t="s">
+        <v>189</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1274,6 +1662,9 @@
       <c r="I12" t="s">
         <v>12</v>
       </c>
+      <c r="J12" t="s">
+        <v>154</v>
+      </c>
       <c r="K12" t="s">
         <v>105</v>
       </c>
@@ -1283,8 +1674,17 @@
       <c r="M12" t="b">
         <v>1</v>
       </c>
+      <c r="N12" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" t="s">
+        <v>169</v>
+      </c>
+      <c r="P12" t="s">
+        <v>190</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>41</v>
       </c>
@@ -1312,6 +1712,9 @@
       <c r="I13" t="s">
         <v>12</v>
       </c>
+      <c r="J13" t="s">
+        <v>155</v>
+      </c>
       <c r="K13" t="s">
         <v>106</v>
       </c>
@@ -1321,8 +1724,11 @@
       <c r="M13" t="b">
         <v>1</v>
       </c>
+      <c r="N13" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -1350,6 +1756,9 @@
       <c r="I14" t="s">
         <v>12</v>
       </c>
+      <c r="J14" t="s">
+        <v>156</v>
+      </c>
       <c r="K14" t="s">
         <v>107</v>
       </c>
@@ -1359,8 +1768,11 @@
       <c r="M14" t="b">
         <v>1</v>
       </c>
+      <c r="N14" t="s">
+        <v>178</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>43</v>
       </c>
@@ -1388,6 +1800,9 @@
       <c r="I15" t="s">
         <v>12</v>
       </c>
+      <c r="J15" t="s">
+        <v>157</v>
+      </c>
       <c r="K15" t="s">
         <v>107</v>
       </c>
@@ -1397,8 +1812,11 @@
       <c r="M15" t="b">
         <v>1</v>
       </c>
+      <c r="N15" t="s">
+        <v>182</v>
+      </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>44</v>
       </c>
@@ -1426,6 +1844,9 @@
       <c r="I16" t="s">
         <v>12</v>
       </c>
+      <c r="J16" t="s">
+        <v>158</v>
+      </c>
       <c r="K16" t="s">
         <v>108</v>
       </c>
@@ -1435,8 +1856,11 @@
       <c r="M16" t="b">
         <v>1</v>
       </c>
+      <c r="N16" t="s">
+        <v>180</v>
+      </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1464,6 +1888,9 @@
       <c r="I17" t="s">
         <v>102</v>
       </c>
+      <c r="J17" t="s">
+        <v>159</v>
+      </c>
       <c r="K17" t="s">
         <v>109</v>
       </c>
@@ -1473,8 +1900,11 @@
       <c r="M17" t="b">
         <v>1</v>
       </c>
+      <c r="N17" t="s">
+        <v>177</v>
+      </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1502,6 +1932,9 @@
       <c r="I18" t="s">
         <v>102</v>
       </c>
+      <c r="J18" t="s">
+        <v>160</v>
+      </c>
       <c r="K18" t="s">
         <v>110</v>
       </c>
@@ -1511,8 +1944,11 @@
       <c r="M18" t="b">
         <v>1</v>
       </c>
+      <c r="N18" t="s">
+        <v>181</v>
+      </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -1540,6 +1976,9 @@
       <c r="I19" t="s">
         <v>102</v>
       </c>
+      <c r="J19" t="s">
+        <v>161</v>
+      </c>
       <c r="K19" t="s">
         <v>110</v>
       </c>
@@ -1549,8 +1988,11 @@
       <c r="M19" t="b">
         <v>1</v>
       </c>
+      <c r="N19" t="s">
+        <v>179</v>
+      </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -1578,6 +2020,9 @@
       <c r="I20" t="s">
         <v>12</v>
       </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
       <c r="K20" t="s">
         <v>111</v>
       </c>
@@ -1587,8 +2032,12 @@
       <c r="M20" t="b">
         <v>1</v>
       </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
   </hyperlinks>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A351C7-060D-4E22-B7E5-E715E747E0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4A600-4D09-4FE1-ABAF-A6FA3C171CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,9 +237,6 @@
   </si>
   <si>
     <t>0975312676</t>
-  </si>
-  <si>
-    <t>$2y$10$npRBs/yI4AkoE3f8v5gZfeZnqUxJNzddkMa49NxQCI2IZ5XMUgnfa</t>
   </si>
   <si>
     <t>bmarioneau0</t>
@@ -727,6 +724,9 @@
   </si>
   <si>
     <t>Hơn 10 năm kinh nghiệm trong lĩnh vực</t>
+  </si>
+  <si>
+    <t>$2y$10$Sgk31oRzu3kNLfIUvAJLNOaTwts89qxic3Yzk2s59o0C/yMxabh2G</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1074,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="F2" sqref="F2:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1134,13 +1134,13 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
+        <v>162</v>
+      </c>
+      <c r="O1" t="s">
         <v>163</v>
       </c>
-      <c r="O1" t="s">
-        <v>164</v>
-      </c>
       <c r="P1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1160,7 +1160,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1184,13 +1184,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="O2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1210,7 +1210,7 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1239,31 +1239,31 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1275,13 +1275,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1289,31 +1289,31 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E5" t="s">
         <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1325,13 +1325,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1339,31 +1339,31 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
         <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -1375,13 +1375,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="O6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1389,34 +1389,34 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" t="s">
         <v>53</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1425,13 +1425,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1439,35 +1439,35 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
         <v>54</v>
       </c>
       <c r="F8" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" t="s">
         <v>102</v>
       </c>
-      <c r="J8" t="s">
-        <v>150</v>
-      </c>
-      <c r="K8" t="s">
-        <v>103</v>
-      </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
@@ -1475,13 +1475,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="O8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1489,35 +1489,35 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
         <v>55</v>
       </c>
       <c r="F9" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" t="s">
+        <v>150</v>
+      </c>
+      <c r="K9" t="s">
         <v>102</v>
       </c>
-      <c r="J9" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
       <c r="L9" t="b">
         <v>1</v>
       </c>
@@ -1525,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="O9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1539,34 +1539,34 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" t="s">
         <v>56</v>
       </c>
       <c r="F10" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1575,13 +1575,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1589,34 +1589,34 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E11" t="s">
         <v>57</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1625,13 +1625,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="O11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="P11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1639,34 +1639,34 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E12" t="s">
         <v>58</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K12" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1675,13 +1675,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="O12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="P12" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1689,34 +1689,34 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" t="s">
         <v>60</v>
       </c>
       <c r="F13" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1725,7 +1725,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1733,34 +1733,34 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
         <v>59</v>
       </c>
       <c r="F14" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H14" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1769,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1777,34 +1777,34 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E15" t="s">
         <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1821,34 +1821,34 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1857,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
@@ -1865,34 +1865,34 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
         <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I17" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1901,7 +1901,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
@@ -1909,34 +1909,34 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
         <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -1945,7 +1945,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
@@ -1953,34 +1953,34 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -1989,7 +1989,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
@@ -1997,34 +1997,34 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E20" t="s">
         <v>66</v>
       </c>
       <c r="F20" t="s">
-        <v>67</v>
+        <v>192</v>
       </c>
       <c r="G20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D4A600-4D09-4FE1-ABAF-A6FA3C171CC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABAEE3-B6D4-4593-B15E-85ADD8B5AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
   <si>
     <t>email</t>
   </si>
@@ -728,12 +728,24 @@
   <si>
     <t>$2y$10$Sgk31oRzu3kNLfIUvAJLNOaTwts89qxic3Yzk2s59o0C/yMxabh2G</t>
   </si>
+  <si>
+    <t>system</t>
+  </si>
+  <si>
+    <t>SYSTEM</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>a12bc102-bab0-409e-9290-28320bea22ee</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,6 +778,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -784,14 +804,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{C477C555-D1DC-4E1A-9325-8407133798E8}"/>
   </cellStyles>
@@ -1071,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2036,6 +2059,30 @@
         <v>177</v>
       </c>
     </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>196</v>
+      </c>
+      <c r="B21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="G21" t="s">
+        <v>194</v>
+      </c>
+      <c r="I21" t="s">
+        <v>195</v>
+      </c>
+      <c r="L21" t="b">
+        <v>0</v>
+      </c>
+      <c r="M21" t="b">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABAEE3-B6D4-4593-B15E-85ADD8B5AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1A9AB-9E1C-4D82-B293-AF16B53B3143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="200">
   <si>
     <t>email</t>
   </si>
@@ -739,6 +739,15 @@
   </si>
   <si>
     <t>a12bc102-bab0-409e-9290-28320bea22ee</t>
+  </si>
+  <si>
+    <t>skied</t>
+  </si>
+  <si>
+    <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
+  </si>
+  <si>
+    <t>transang123@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,7 +1114,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" customWidth="1"/>
     <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
@@ -1883,7 +1892,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -1927,7 +1936,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1971,7 +1980,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>47</v>
       </c>
@@ -2015,7 +2024,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -2059,7 +2068,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>196</v>
       </c>
@@ -2081,6 +2090,56 @@
       </c>
       <c r="M21" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" t="s">
+        <v>197</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>199</v>
+      </c>
+      <c r="E22">
+        <v>375435422</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" t="s">
+        <v>15</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>169</v>
+      </c>
+      <c r="O22" t="s">
+        <v>164</v>
+      </c>
+      <c r="P22" t="s">
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4ABAEE3-B6D4-4593-B15E-85ADD8B5AB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D181906-BD71-4973-80C1-B57B4DC2E2F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="210">
   <si>
     <t>email</t>
   </si>
@@ -739,6 +739,45 @@
   </si>
   <si>
     <t>a12bc102-bab0-409e-9290-28320bea22ee</t>
+  </si>
+  <si>
+    <t>9edbd47a-186b-4c5b-a077-8446b7418f6f</t>
+  </si>
+  <si>
+    <t>2798c948-07a7-4f85-b7a6-8d8d69e53676</t>
+  </si>
+  <si>
+    <t>Customer_Service</t>
+  </si>
+  <si>
+    <t>xuanthanh@gmail.com</t>
+  </si>
+  <si>
+    <t>ngocnhu@gmail.com</t>
+  </si>
+  <si>
+    <t>0346494851</t>
+  </si>
+  <si>
+    <t>0366995813</t>
+  </si>
+  <si>
+    <t>Đỗ Xuân Thanh</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Như</t>
+  </si>
+  <si>
+    <t>https://vapa.vn/wp-content/uploads/2022/12/anh-avatar-facebook-dep-001.jpg</t>
+  </si>
+  <si>
+    <t>https://thao68.com/wp-content/uploads/2022/03/avatar-facebook-3.jpg</t>
+  </si>
+  <si>
+    <t>xuanthanh</t>
+  </si>
+  <si>
+    <t>ngocnhu</t>
   </si>
 </sst>
 </file>
@@ -809,9 +848,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1094,10 +1134,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2083,6 +2123,94 @@
         <v>0</v>
       </c>
     </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>197</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>199</v>
+      </c>
+      <c r="D22" t="s">
+        <v>200</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F22" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" t="s">
+        <v>204</v>
+      </c>
+      <c r="H22" t="s">
+        <v>206</v>
+      </c>
+      <c r="I22" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" t="s">
+        <v>161</v>
+      </c>
+      <c r="K22" t="s">
+        <v>109</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" t="s">
+        <v>199</v>
+      </c>
+      <c r="D23" t="s">
+        <v>201</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>205</v>
+      </c>
+      <c r="H23" t="s">
+        <v>207</v>
+      </c>
+      <c r="I23" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" t="s">
+        <v>151</v>
+      </c>
+      <c r="K23" t="s">
+        <v>110</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D1A9AB-9E1C-4D82-B293-AF16B53B3143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E5614-4AF4-4085-8D80-1B07440413DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
   <si>
     <t>email</t>
   </si>
@@ -748,6 +748,39 @@
   </si>
   <si>
     <t>transang123@gmail.com</t>
+  </si>
+  <si>
+    <t>9edbd47a-186b-4c5b-a077-8446b7418f6f</t>
+  </si>
+  <si>
+    <t>xuanthanh</t>
+  </si>
+  <si>
+    <t>Customer_Service</t>
+  </si>
+  <si>
+    <t>xuanthanh@gmail.com</t>
+  </si>
+  <si>
+    <t>Đỗ Xuân Thanh</t>
+  </si>
+  <si>
+    <t>https://vapa.vn/wp-content/uploads/2022/12/anh-avatar-facebook-dep-001.jpg</t>
+  </si>
+  <si>
+    <t>2798c948-07a7-4f85-b7a6-8d8d69e53676</t>
+  </si>
+  <si>
+    <t>ngocnhu</t>
+  </si>
+  <si>
+    <t>ngocnhu@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Ngọc Như</t>
+  </si>
+  <si>
+    <t>https://thao68.com/wp-content/uploads/2022/03/avatar-facebook-3.jpg</t>
   </si>
 </sst>
 </file>
@@ -818,9 +851,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1103,10 +1137,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2142,6 +2176,94 @@
         <v>191</v>
       </c>
     </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C23" t="s">
+        <v>202</v>
+      </c>
+      <c r="D23" t="s">
+        <v>203</v>
+      </c>
+      <c r="E23">
+        <v>346494851</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>204</v>
+      </c>
+      <c r="H23" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="2">
+        <v>37011</v>
+      </c>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B24" t="s">
+        <v>207</v>
+      </c>
+      <c r="C24" t="s">
+        <v>202</v>
+      </c>
+      <c r="D24" t="s">
+        <v>208</v>
+      </c>
+      <c r="E24">
+        <v>366995813</v>
+      </c>
+      <c r="F24" t="s">
+        <v>192</v>
+      </c>
+      <c r="G24" t="s">
+        <v>209</v>
+      </c>
+      <c r="H24" t="s">
+        <v>210</v>
+      </c>
+      <c r="I24" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="2">
+        <v>37001</v>
+      </c>
+      <c r="K24" t="s">
+        <v>110</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
+        <v>177</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{285E5614-4AF4-4085-8D80-1B07440413DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5021B5-5013-4DF1-A8F9-8A52B4D559E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
   <si>
     <t>email</t>
   </si>
@@ -191,9 +191,6 @@
     <t>0987461394</t>
   </si>
   <si>
-    <t>0168549326</t>
-  </si>
-  <si>
     <t>0316925496</t>
   </si>
   <si>
@@ -203,12 +200,6 @@
     <t>0816139431</t>
   </si>
   <si>
-    <t>0123564945</t>
-  </si>
-  <si>
-    <t>0161379465</t>
-  </si>
-  <si>
     <t>0946851236</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
   </si>
   <si>
     <t>0945672123</t>
-  </si>
-  <si>
-    <t>0163547861</t>
   </si>
   <si>
     <t>0345678721</t>
@@ -781,6 +769,27 @@
   </si>
   <si>
     <t>https://thao68.com/wp-content/uploads/2022/03/avatar-facebook-3.jpg</t>
+  </si>
+  <si>
+    <t>0968549326</t>
+  </si>
+  <si>
+    <t>0523564945</t>
+  </si>
+  <si>
+    <t>0561379465</t>
+  </si>
+  <si>
+    <t>0863547861</t>
+  </si>
+  <si>
+    <t>0375435422</t>
+  </si>
+  <si>
+    <t>0346494851</t>
+  </si>
+  <si>
+    <t>0366995813</t>
   </si>
 </sst>
 </file>
@@ -851,10 +860,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1140,7 +1150,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1200,13 +1210,13 @@
         <v>18</v>
       </c>
       <c r="N1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="O1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="P1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -1226,7 +1236,7 @@
         <v>28</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1250,13 +1260,13 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -1276,7 +1286,7 @@
         <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
@@ -1305,31 +1315,31 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E4" t="s">
         <v>50</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="I4" t="s">
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="K4" t="s">
         <v>16</v>
@@ -1341,13 +1351,13 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="O4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -1355,31 +1365,31 @@
         <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
-      </c>
-      <c r="E5" t="s">
-        <v>51</v>
+        <v>81</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -1391,13 +1401,13 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -1405,31 +1415,31 @@
         <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="I6" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -1441,13 +1451,13 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O6" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -1455,34 +1465,34 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="I7" t="s">
         <v>12</v>
       </c>
       <c r="J7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1491,13 +1501,13 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -1505,34 +1515,34 @@
         <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C8" t="s">
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F8" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G8" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="K8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1541,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="O8" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -1555,34 +1565,34 @@
         <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>89</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
+        <v>85</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>208</v>
       </c>
       <c r="F9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="I9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1591,13 +1601,13 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="O9" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -1605,34 +1615,34 @@
         <v>38</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
+        <v>86</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G10" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="H10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="I10" t="s">
         <v>12</v>
       </c>
       <c r="J10" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1641,13 +1651,13 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -1655,34 +1665,34 @@
         <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="K11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
@@ -1691,13 +1701,13 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O11" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="P11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -1705,34 +1715,34 @@
         <v>40</v>
       </c>
       <c r="B12" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G12" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="I12" t="s">
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="K12" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1741,13 +1751,13 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="O12" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
@@ -1755,34 +1765,34 @@
         <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F13" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="H13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="I13" t="s">
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="K13" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1791,7 +1801,7 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
@@ -1799,34 +1809,34 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C14" t="s">
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F14" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G14" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="H14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="I14" t="s">
         <v>12</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1835,7 +1845,7 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -1843,34 +1853,34 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C15" t="s">
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G15" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1879,7 +1889,7 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
@@ -1887,34 +1897,34 @@
         <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C16" t="s">
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I16" t="s">
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K16" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="L16" t="b">
         <v>1</v>
@@ -1923,7 +1933,7 @@
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
@@ -1931,34 +1941,34 @@
         <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C17" t="s">
         <v>49</v>
       </c>
       <c r="D17" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="F17" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="H17" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" t="s">
         <v>97</v>
       </c>
-      <c r="E17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>192</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
-      <c r="H17" t="s">
-        <v>141</v>
-      </c>
-      <c r="I17" t="s">
-        <v>101</v>
-      </c>
       <c r="J17" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L17" t="b">
         <v>1</v>
@@ -1967,7 +1977,7 @@
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
@@ -1975,34 +1985,34 @@
         <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F18" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="I18" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J18" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L18" t="b">
         <v>1</v>
@@ -2011,7 +2021,7 @@
         <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
@@ -2019,34 +2029,34 @@
         <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C19" t="s">
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G19" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="I19" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J19" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K19" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L19" t="b">
         <v>1</v>
@@ -2055,7 +2065,7 @@
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
@@ -2063,34 +2073,34 @@
         <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C20" t="s">
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F20" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="I20" t="s">
         <v>12</v>
       </c>
       <c r="J20" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L20" t="b">
         <v>1</v>
@@ -2099,25 +2109,25 @@
         <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C21" t="s">
         <v>24</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I21" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2128,22 +2138,22 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>199</v>
-      </c>
-      <c r="E22">
-        <v>375435422</v>
+        <v>195</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>211</v>
       </c>
       <c r="F22" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
         <v>8</v>
@@ -2167,39 +2177,39 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B23" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" t="s">
+        <v>198</v>
+      </c>
+      <c r="D23" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F23" t="s">
+        <v>188</v>
+      </c>
+      <c r="G23" t="s">
         <v>200</v>
       </c>
-      <c r="B23" t="s">
+      <c r="H23" t="s">
         <v>201</v>
-      </c>
-      <c r="C23" t="s">
-        <v>202</v>
-      </c>
-      <c r="D23" t="s">
-        <v>203</v>
-      </c>
-      <c r="E23">
-        <v>346494851</v>
-      </c>
-      <c r="F23" t="s">
-        <v>192</v>
-      </c>
-      <c r="G23" t="s">
-        <v>204</v>
-      </c>
-      <c r="H23" t="s">
-        <v>205</v>
       </c>
       <c r="I23" t="s">
         <v>12</v>
@@ -2208,7 +2218,7 @@
         <v>37011</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2217,42 +2227,42 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B24" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" t="s">
+        <v>198</v>
+      </c>
+      <c r="D24" t="s">
+        <v>204</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>205</v>
+      </c>
+      <c r="H24" t="s">
         <v>206</v>
       </c>
-      <c r="B24" t="s">
-        <v>207</v>
-      </c>
-      <c r="C24" t="s">
-        <v>202</v>
-      </c>
-      <c r="D24" t="s">
-        <v>208</v>
-      </c>
-      <c r="E24">
-        <v>366995813</v>
-      </c>
-      <c r="F24" t="s">
-        <v>192</v>
-      </c>
-      <c r="G24" t="s">
-        <v>209</v>
-      </c>
-      <c r="H24" t="s">
-        <v>210</v>
-      </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="J24" s="2">
         <v>37001</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L24" t="b">
         <v>1</v>
@@ -2261,7 +2271,7 @@
         <v>1</v>
       </c>
       <c r="N24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5021B5-5013-4DF1-A8F9-8A52B4D559E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2193247-5899-484D-A349-113EF00968BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="210">
   <si>
     <t>email</t>
   </si>
@@ -44,12 +44,6 @@
     <t>password</t>
   </si>
   <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/0b2ff7a1.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/25-3545.jpg</t>
-  </si>
-  <si>
     <t>phone_number</t>
   </si>
   <si>
@@ -408,57 +402,6 @@
   </si>
   <si>
     <t>Đặng Chi Anh</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i11.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i19.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i2.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i20.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i23.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i27.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i3.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i30.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i31.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i33.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i42.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/i8.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a21.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a24.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a25.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a26.jpg</t>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/devnguvcl/public_hosting_image/main/img/a27.jpg</t>
   </si>
   <si>
     <t>2001-04-14</t>
@@ -729,15 +672,6 @@
     <t>a12bc102-bab0-409e-9290-28320bea22ee</t>
   </si>
   <si>
-    <t>skied</t>
-  </si>
-  <si>
-    <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
-  </si>
-  <si>
-    <t>transang123@gmail.com</t>
-  </si>
-  <si>
     <t>9edbd47a-186b-4c5b-a077-8446b7418f6f</t>
   </si>
   <si>
@@ -753,9 +687,6 @@
     <t>Đỗ Xuân Thanh</t>
   </si>
   <si>
-    <t>https://vapa.vn/wp-content/uploads/2022/12/anh-avatar-facebook-dep-001.jpg</t>
-  </si>
-  <si>
     <t>2798c948-07a7-4f85-b7a6-8d8d69e53676</t>
   </si>
   <si>
@@ -768,9 +699,6 @@
     <t>Lê Ngọc Như</t>
   </si>
   <si>
-    <t>https://thao68.com/wp-content/uploads/2022/03/avatar-facebook-3.jpg</t>
-  </si>
-  <si>
     <t>0968549326</t>
   </si>
   <si>
@@ -783,13 +711,73 @@
     <t>0863547861</t>
   </si>
   <si>
-    <t>0375435422</t>
-  </si>
-  <si>
     <t>0346494851</t>
   </si>
   <si>
     <t>0366995813</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/02/dr-ava-shamban.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/bernice-cohen-634x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2020/01/Aileen-headshot-608x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2015/08/IMG_5828-608x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/ava-md-7723-60-507x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/dr-simzar-500x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/06/Jenna2-628x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/KA-507x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2016/01/Licia_Work.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Svetlana-Pyatigorskaya-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Furqan-Tejani-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Dmitry-Khasak-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/hamid-bamshad-rpa-c.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Trajko-Bojadzievski-MD-%E2%80%93-Brooklyn-Endocrinologist.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Jivko-Gueorguiev-DDS.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/01/James-Skala-DDS.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Bogdan-Brajic.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Yevgeniy-Eugene-Mikityanskiy-DO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/David-Soltanpour-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/rohit-farzala.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/06/Dr.-Mikhail-Fukshansky-MD.jpg</t>
   </si>
 </sst>
 </file>
@@ -860,11 +848,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1147,10 +1136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P24"/>
+  <dimension ref="A1:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,87 +1160,87 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N1" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="O1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P1" t="s">
         <v>159</v>
-      </c>
-      <c r="P1" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>169</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>25</v>
-      </c>
       <c r="K2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L2" t="b">
         <v>1</v>
@@ -1260,48 +1249,48 @@
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="O2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>169</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>188</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J3" t="s">
-        <v>26</v>
-      </c>
       <c r="K3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
@@ -1312,37 +1301,37 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
-      </c>
-      <c r="H4" t="s">
-        <v>124</v>
+        <v>105</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="I4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L4" t="b">
         <v>1</v>
@@ -1351,48 +1340,48 @@
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
       <c r="O4" t="s">
+        <v>142</v>
+      </c>
+      <c r="P4" t="s">
         <v>161</v>
-      </c>
-      <c r="P4" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G5" t="s">
-        <v>116</v>
-      </c>
-      <c r="H5" t="s">
-        <v>125</v>
+        <v>114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>192</v>
       </c>
       <c r="I5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J5" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="K5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
@@ -1401,48 +1390,48 @@
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O5" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="P5" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G6" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>126</v>
+        <v>115</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>193</v>
       </c>
       <c r="I6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J6" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
@@ -1451,48 +1440,48 @@
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="O6" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>127</v>
+        <v>200</v>
       </c>
       <c r="I7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L7" t="b">
         <v>1</v>
@@ -1501,48 +1490,48 @@
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>197</v>
       </c>
       <c r="I8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
@@ -1551,48 +1540,48 @@
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="O8" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="P8" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="I9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J9" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L9" t="b">
         <v>1</v>
@@ -1601,48 +1590,48 @@
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="O9" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L10" t="b">
         <v>1</v>
@@ -1651,49 +1640,49 @@
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="O10" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" t="s">
         <v>97</v>
       </c>
-      <c r="J11" t="s">
-        <v>148</v>
-      </c>
-      <c r="K11" t="s">
-        <v>99</v>
-      </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
@@ -1701,48 +1690,48 @@
         <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="O11" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F12" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="I12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="K12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L12" t="b">
         <v>1</v>
@@ -1751,48 +1740,48 @@
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="O12" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F13" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G13" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
@@ -1801,42 +1790,42 @@
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>134</v>
+        <v>207</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L14" t="b">
         <v>1</v>
@@ -1845,42 +1834,42 @@
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>135</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L15" t="b">
         <v>1</v>
@@ -1889,245 +1878,245 @@
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>169</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>209</v>
+      </c>
+      <c r="I16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>101</v>
+      </c>
+      <c r="L16" t="b">
+        <v>1</v>
+      </c>
+      <c r="M16" t="b">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F17" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" t="s">
+        <v>119</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="I17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
+      </c>
+      <c r="K17" t="s">
+        <v>102</v>
+      </c>
+      <c r="L17" t="b">
+        <v>1</v>
+      </c>
+      <c r="M17" t="b">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>44</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>75</v>
       </c>
-      <c r="C16" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" t="s">
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>92</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>120</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="I18" t="s">
+        <v>95</v>
+      </c>
+      <c r="J18" t="s">
+        <v>136</v>
+      </c>
+      <c r="K18" t="s">
+        <v>103</v>
+      </c>
+      <c r="L18" t="b">
+        <v>1</v>
+      </c>
+      <c r="M18" t="b">
+        <v>1</v>
+      </c>
+      <c r="N18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" t="s">
         <v>59</v>
       </c>
-      <c r="F16" t="s">
-        <v>188</v>
-      </c>
-      <c r="G16" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I16" t="s">
-        <v>12</v>
-      </c>
-      <c r="J16" t="s">
-        <v>153</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>189</v>
+      </c>
+      <c r="I19" t="s">
+        <v>95</v>
+      </c>
+      <c r="J19" t="s">
+        <v>137</v>
+      </c>
+      <c r="K19" t="s">
         <v>103</v>
       </c>
-      <c r="L16" t="b">
-        <v>1</v>
-      </c>
-      <c r="M16" t="b">
-        <v>1</v>
-      </c>
-      <c r="N16" t="s">
-        <v>175</v>
+      <c r="L19" t="b">
+        <v>1</v>
+      </c>
+      <c r="M19" t="b">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>155</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>93</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="F17" t="s">
-        <v>188</v>
-      </c>
-      <c r="G17" t="s">
-        <v>121</v>
-      </c>
-      <c r="H17" t="s">
-        <v>137</v>
-      </c>
-      <c r="I17" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" t="s">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" t="s">
+        <v>94</v>
+      </c>
+      <c r="E20" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" t="s">
+        <v>169</v>
+      </c>
+      <c r="G20" t="s">
+        <v>113</v>
+      </c>
+      <c r="H20" t="s">
+        <v>206</v>
+      </c>
+      <c r="I20" t="s">
+        <v>10</v>
+      </c>
+      <c r="J20" t="s">
+        <v>138</v>
+      </c>
+      <c r="K20" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" t="b">
+        <v>1</v>
+      </c>
+      <c r="M20" t="b">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
         <v>154</v>
       </c>
-      <c r="K17" t="s">
-        <v>104</v>
-      </c>
-      <c r="L17" t="b">
-        <v>1</v>
-      </c>
-      <c r="M17" t="b">
-        <v>1</v>
-      </c>
-      <c r="N17" t="s">
-        <v>172</v>
-      </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" t="s">
-        <v>188</v>
-      </c>
-      <c r="G18" t="s">
-        <v>122</v>
-      </c>
-      <c r="H18" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" t="s">
-        <v>97</v>
-      </c>
-      <c r="J18" t="s">
-        <v>155</v>
-      </c>
-      <c r="K18" t="s">
-        <v>105</v>
-      </c>
-      <c r="L18" t="b">
-        <v>1</v>
-      </c>
-      <c r="M18" t="b">
-        <v>1</v>
-      </c>
-      <c r="N18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>95</v>
-      </c>
-      <c r="E19" t="s">
-        <v>61</v>
-      </c>
-      <c r="F19" t="s">
-        <v>188</v>
-      </c>
-      <c r="G19" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" t="s">
-        <v>97</v>
-      </c>
-      <c r="J19" t="s">
-        <v>156</v>
-      </c>
-      <c r="K19" t="s">
-        <v>105</v>
-      </c>
-      <c r="L19" t="b">
-        <v>1</v>
-      </c>
-      <c r="M19" t="b">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" t="s">
-        <v>79</v>
-      </c>
-      <c r="C20" t="s">
-        <v>49</v>
-      </c>
-      <c r="D20" t="s">
-        <v>96</v>
-      </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" t="s">
-        <v>188</v>
-      </c>
-      <c r="G20" t="s">
-        <v>115</v>
-      </c>
-      <c r="H20" t="s">
-        <v>140</v>
-      </c>
-      <c r="I20" t="s">
-        <v>12</v>
-      </c>
-      <c r="J20" t="s">
-        <v>157</v>
-      </c>
-      <c r="K20" t="s">
-        <v>106</v>
-      </c>
-      <c r="L20" t="b">
-        <v>1</v>
-      </c>
-      <c r="M20" t="b">
-        <v>1</v>
-      </c>
-      <c r="N20" t="s">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>192</v>
-      </c>
       <c r="B21" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D21" s="1"/>
       <c r="G21" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L21" t="b">
         <v>0</v>
@@ -2136,89 +2125,83 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
       <c r="C22" t="s">
-        <v>23</v>
+        <v>176</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I22" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="2">
+        <v>37011</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" t="b">
+        <v>1</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B23" t="s">
+        <v>180</v>
+      </c>
+      <c r="C23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="G22" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" t="s">
-        <v>12</v>
-      </c>
-      <c r="J22" t="s">
-        <v>25</v>
-      </c>
-      <c r="K22" t="s">
-        <v>15</v>
-      </c>
-      <c r="L22" t="b">
-        <v>1</v>
-      </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="s">
-        <v>165</v>
-      </c>
-      <c r="O22" t="s">
-        <v>160</v>
-      </c>
-      <c r="P22" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>196</v>
-      </c>
-      <c r="B23" t="s">
-        <v>197</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" t="s">
+        <v>182</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D23" t="s">
-        <v>199</v>
-      </c>
-      <c r="E23" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="F23" t="s">
-        <v>188</v>
-      </c>
-      <c r="G23" t="s">
-        <v>200</v>
-      </c>
-      <c r="H23" t="s">
-        <v>201</v>
-      </c>
       <c r="I23" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="J23" s="2">
-        <v>37011</v>
+        <v>37001</v>
       </c>
       <c r="K23" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L23" t="b">
         <v>1</v>
@@ -2227,59 +2210,21 @@
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>202</v>
-      </c>
-      <c r="B24" t="s">
-        <v>203</v>
-      </c>
-      <c r="C24" t="s">
-        <v>198</v>
-      </c>
-      <c r="D24" t="s">
-        <v>204</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="F24" t="s">
-        <v>188</v>
-      </c>
-      <c r="G24" t="s">
-        <v>205</v>
-      </c>
-      <c r="H24" t="s">
-        <v>206</v>
-      </c>
-      <c r="I24" t="s">
-        <v>97</v>
-      </c>
-      <c r="J24" s="2">
-        <v>37001</v>
-      </c>
-      <c r="K24" t="s">
-        <v>106</v>
-      </c>
-      <c r="L24" t="b">
-        <v>1</v>
-      </c>
-      <c r="M24" t="b">
-        <v>1</v>
-      </c>
-      <c r="N24" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{97E28657-8B9B-454E-A16D-780932F33430}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{61C2647B-81DD-45BA-9304-3607698ED2DD}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{33775401-0228-4D14-AE8A-717A26E5A038}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{E7490170-54F7-4E01-9658-CB2DA71CEB4C}"/>
+    <hyperlink ref="H23" r:id="rId6" xr:uid="{78E53992-DE4A-45EE-8152-912E3C94060B}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{F8A41133-9AEE-46CC-AE64-9775D15815E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2193247-5899-484D-A349-113EF00968BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BD3CD-54D9-410B-8CF0-8A30EB5CC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="215">
   <si>
     <t>email</t>
   </si>
@@ -672,6 +672,15 @@
     <t>a12bc102-bab0-409e-9290-28320bea22ee</t>
   </si>
   <si>
+    <t>skied</t>
+  </si>
+  <si>
+    <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
+  </si>
+  <si>
+    <t>transang123@gmail.com</t>
+  </si>
+  <si>
     <t>9edbd47a-186b-4c5b-a077-8446b7418f6f</t>
   </si>
   <si>
@@ -699,6 +708,9 @@
     <t>Lê Ngọc Như</t>
   </si>
   <si>
+    <t>https://thao68.com/wp-content/uploads/2022/03/avatar-facebook-3.jpg</t>
+  </si>
+  <si>
     <t>0968549326</t>
   </si>
   <si>
@@ -711,73 +723,76 @@
     <t>0863547861</t>
   </si>
   <si>
+    <t>0375435422</t>
+  </si>
+  <si>
     <t>0346494851</t>
   </si>
   <si>
     <t>0366995813</t>
   </si>
   <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/dr-simzar-500x760.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/01/James-Skala-DDS.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Furqan-Tejani-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2015/08/IMG_5828-608x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/ava-md-7723-60-507x760.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Dmitry-Khasak-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2016/01/Licia_Work.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/KA-507x760.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/hamid-bamshad-rpa-c.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/06/Jenna2-628x760.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Trajko-Bojadzievski-MD-%E2%80%93-Brooklyn-Endocrinologist.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Jivko-Gueorguiev-DDS.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/David-Soltanpour-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/rohit-farzala.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/06/Dr.-Mikhail-Fukshansky-MD.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2018/03/bernice-cohen-634x760.jpg</t>
+  </si>
+  <si>
+    <t>https://avamd.com/wp-content/uploads/2020/01/Aileen-headshot-608x760.jpg</t>
+  </si>
+  <si>
     <t>https://avamd.com/wp-content/uploads/2018/02/dr-ava-shamban.jpg</t>
   </si>
   <si>
-    <t>https://avamd.com/wp-content/uploads/2018/03/bernice-cohen-634x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2020/01/Aileen-headshot-608x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2015/08/IMG_5828-608x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2018/03/ava-md-7723-60-507x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2018/03/dr-simzar-500x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2018/06/Jenna2-628x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2018/03/KA-507x760.jpg</t>
-  </si>
-  <si>
-    <t>https://avamd.com/wp-content/uploads/2016/01/Licia_Work.jpg</t>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Yevgeniy-Eugene-Mikityanskiy-DO.jpg</t>
+  </si>
+  <si>
+    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Bogdan-Brajic.jpg</t>
   </si>
   <si>
     <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Svetlana-Pyatigorskaya-MD.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Furqan-Tejani-MD.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Dmitry-Khasak-MD.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/hamid-bamshad-rpa-c.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Trajko-Bojadzievski-MD-%E2%80%93-Brooklyn-Endocrinologist.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Jivko-Gueorguiev-DDS.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/01/James-Skala-DDS.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Bogdan-Brajic.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Yevgeniy-Eugene-Mikityanskiy-DO.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/David-Soltanpour-MD.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/rohit-farzala.jpg</t>
-  </si>
-  <si>
-    <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/06/Dr.-Mikhail-Fukshansky-MD.jpg</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1151,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1281,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -1322,7 +1337,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -1363,7 +1378,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F5" t="s">
         <v>169</v>
@@ -1372,7 +1387,7 @@
         <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="I5" t="s">
         <v>95</v>
@@ -1422,7 +1437,7 @@
         <v>115</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="I6" t="s">
         <v>95</v>
@@ -1472,7 +1487,7 @@
         <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1522,7 +1537,7 @@
         <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I8" t="s">
         <v>95</v>
@@ -1563,7 +1578,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="F9" t="s">
         <v>169</v>
@@ -1572,7 +1587,7 @@
         <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="I9" t="s">
         <v>95</v>
@@ -1613,7 +1628,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="F10" t="s">
         <v>169</v>
@@ -1622,7 +1637,7 @@
         <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1672,7 +1687,7 @@
         <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="I11" t="s">
         <v>95</v>
@@ -1722,7 +1737,7 @@
         <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1772,7 +1787,7 @@
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1816,7 +1831,7 @@
         <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1860,7 +1875,7 @@
         <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1904,7 +1919,7 @@
         <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1925,7 +1940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1939,7 +1954,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F17" t="s">
         <v>169</v>
@@ -1948,7 +1963,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="I17" t="s">
         <v>95</v>
@@ -1969,7 +1984,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -1992,7 +2007,7 @@
         <v>120</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="I18" t="s">
         <v>95</v>
@@ -2013,7 +2028,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2036,7 +2051,7 @@
         <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="I19" t="s">
         <v>95</v>
@@ -2057,7 +2072,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2080,7 +2095,7 @@
         <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -2101,7 +2116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2125,39 +2140,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" t="s">
         <v>174</v>
       </c>
-      <c r="B22" t="s">
-        <v>175</v>
-      </c>
       <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
         <v>176</v>
       </c>
-      <c r="D22" t="s">
-        <v>177</v>
-      </c>
       <c r="E22" s="3" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F22" t="s">
         <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
+        <v>6</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
-      <c r="J22" s="2">
-        <v>37011</v>
+      <c r="J22" t="s">
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2166,50 +2181,100 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="O22" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" t="s">
+        <v>178</v>
+      </c>
+      <c r="C23" t="s">
         <v>179</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>180</v>
       </c>
-      <c r="C23" t="s">
-        <v>176</v>
-      </c>
-      <c r="D23" t="s">
-        <v>181</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
       </c>
       <c r="G23" t="s">
+        <v>181</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>37011</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="B24" t="s">
+        <v>183</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24" t="s">
+        <v>184</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" t="s">
+        <v>186</v>
+      </c>
+      <c r="I24" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>37001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2217,12 +2282,12 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="D3" r:id="rId1" xr:uid="{302FE3D0-BB18-404B-81DE-91BA2AA6FC90}"/>
-    <hyperlink ref="H5" r:id="rId2" xr:uid="{97E28657-8B9B-454E-A16D-780932F33430}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{61C2647B-81DD-45BA-9304-3607698ED2DD}"/>
-    <hyperlink ref="H17" r:id="rId4" xr:uid="{33775401-0228-4D14-AE8A-717A26E5A038}"/>
-    <hyperlink ref="H18" r:id="rId5" xr:uid="{E7490170-54F7-4E01-9658-CB2DA71CEB4C}"/>
-    <hyperlink ref="H23" r:id="rId6" xr:uid="{78E53992-DE4A-45EE-8152-912E3C94060B}"/>
-    <hyperlink ref="H2" r:id="rId7" xr:uid="{F8A41133-9AEE-46CC-AE64-9775D15815E2}"/>
+    <hyperlink ref="H5" r:id="rId2" xr:uid="{699CA74D-67A2-439E-87AD-A0F9BBFF8D30}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{B383CACE-3734-48CE-ABD4-8869078669E4}"/>
+    <hyperlink ref="H17" r:id="rId4" xr:uid="{18C8432C-9B2C-4839-955F-D7B3DF5A9353}"/>
+    <hyperlink ref="H18" r:id="rId5" xr:uid="{6BF63A4D-9F31-4D71-95FB-CF883777EC20}"/>
+    <hyperlink ref="H23" r:id="rId6" xr:uid="{FCE4F019-0908-4951-A759-888F6846CF8A}"/>
+    <hyperlink ref="H2" r:id="rId7" xr:uid="{3DD417BB-02E7-45A0-978C-7F5BED06E77B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lindonut\Documents\GitHub\Final\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2193247-5899-484D-A349-113EF00968BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BCBBBE5-F0A8-4EB7-BE2E-FA468E2FF52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="214">
   <si>
     <t>email</t>
   </si>
@@ -778,6 +778,18 @@
   </si>
   <si>
     <t>https://www.centurymedicaldental.com/wp-content/uploads/2023/06/Dr.-Mikhail-Fukshansky-MD.jpg</t>
+  </si>
+  <si>
+    <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
+  </si>
+  <si>
+    <t>skied</t>
+  </si>
+  <si>
+    <t>transang123@gmail.com</t>
+  </si>
+  <si>
+    <t>Đại học Y Hà Nội</t>
   </si>
 </sst>
 </file>
@@ -1136,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1925,7 +1937,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>43</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>44</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>45</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>46</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>173</v>
       </c>
@@ -2125,39 +2137,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
-      </c>
-      <c r="D22" t="s">
-        <v>177</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>187</v>
+        <v>21</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E22">
+        <v>375435422</v>
       </c>
       <c r="F22" t="s">
         <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>178</v>
-      </c>
-      <c r="H22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H22" t="s">
         <v>205</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
       </c>
       <c r="J22" s="2">
-        <v>37011</v>
+        <v>36980</v>
       </c>
       <c r="K22" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
       <c r="L22" t="b">
         <v>1</v>
@@ -2166,50 +2178,100 @@
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+        <v>213</v>
+      </c>
+      <c r="O22" t="s">
+        <v>141</v>
+      </c>
+      <c r="P22" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C23" t="s">
         <v>176</v>
       </c>
       <c r="D23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
       </c>
       <c r="G23" t="s">
+        <v>178</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="2">
+        <v>37011</v>
+      </c>
+      <c r="K23" t="s">
+        <v>103</v>
+      </c>
+      <c r="L23" t="b">
+        <v>1</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B24" t="s">
+        <v>180</v>
+      </c>
+      <c r="C24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D24" t="s">
+        <v>181</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
         <v>182</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I24" t="s">
         <v>95</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J24" s="2">
         <v>37001</v>
       </c>
-      <c r="K23" t="s">
+      <c r="K24" t="s">
         <v>104</v>
       </c>
-      <c r="L23" t="b">
-        <v>1</v>
-      </c>
-      <c r="M23" t="b">
-        <v>1</v>
-      </c>
-      <c r="N23" t="s">
+      <c r="L24" t="b">
+        <v>1</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2221,7 +2283,7 @@
     <hyperlink ref="H6" r:id="rId3" xr:uid="{61C2647B-81DD-45BA-9304-3607698ED2DD}"/>
     <hyperlink ref="H17" r:id="rId4" xr:uid="{33775401-0228-4D14-AE8A-717A26E5A038}"/>
     <hyperlink ref="H18" r:id="rId5" xr:uid="{E7490170-54F7-4E01-9658-CB2DA71CEB4C}"/>
-    <hyperlink ref="H23" r:id="rId6" xr:uid="{78E53992-DE4A-45EE-8152-912E3C94060B}"/>
+    <hyperlink ref="H24" r:id="rId6" xr:uid="{78E53992-DE4A-45EE-8152-912E3C94060B}"/>
     <hyperlink ref="H2" r:id="rId7" xr:uid="{F8A41133-9AEE-46CC-AE64-9775D15815E2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/models/data/staff.xlsx
+++ b/src/models/data/staff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dhieu\Learn\Hoc_Ki_VIII\src\MEDRE_BE\src\models\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{139BD3CD-54D9-410B-8CF0-8A30EB5CC120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102BA117-94D4-40A5-BD52-8E2270193856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1500" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="19224" windowHeight="10056" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="216">
   <si>
     <t>email</t>
   </si>
@@ -678,9 +678,6 @@
     <t>0ba32cd2-e617-418a-84a0-9e53826a0b9d</t>
   </si>
   <si>
-    <t>transang123@gmail.com</t>
-  </si>
-  <si>
     <t>9edbd47a-186b-4c5b-a077-8446b7418f6f</t>
   </si>
   <si>
@@ -793,6 +790,12 @@
   </si>
   <si>
     <t>https://www.centurymedicaldental.com/wp-content/uploads/2022/11/Svetlana-Pyatigorskaya-MD.jpg</t>
+  </si>
+  <si>
+    <t>Trần Quang Nghĩa</t>
+  </si>
+  <si>
+    <t>tqnghia@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1153,13 +1156,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.88671875" customWidth="1"/>
@@ -1246,7 +1249,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I2" t="s">
         <v>10</v>
@@ -1296,7 +1299,7 @@
         <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I3" t="s">
         <v>10</v>
@@ -1337,7 +1340,7 @@
         <v>105</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -1378,7 +1381,7 @@
         <v>79</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>169</v>
@@ -1387,7 +1390,7 @@
         <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
         <v>95</v>
@@ -1437,7 +1440,7 @@
         <v>115</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I6" t="s">
         <v>95</v>
@@ -1487,7 +1490,7 @@
         <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I7" t="s">
         <v>10</v>
@@ -1537,7 +1540,7 @@
         <v>116</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="I8" t="s">
         <v>95</v>
@@ -1578,7 +1581,7 @@
         <v>83</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
         <v>169</v>
@@ -1587,7 +1590,7 @@
         <v>117</v>
       </c>
       <c r="H9" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I9" t="s">
         <v>95</v>
@@ -1628,7 +1631,7 @@
         <v>84</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F10" t="s">
         <v>169</v>
@@ -1637,7 +1640,7 @@
         <v>107</v>
       </c>
       <c r="H10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I10" t="s">
         <v>10</v>
@@ -1687,7 +1690,7 @@
         <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I11" t="s">
         <v>95</v>
@@ -1737,7 +1740,7 @@
         <v>108</v>
       </c>
       <c r="H12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I12" t="s">
         <v>10</v>
@@ -1787,7 +1790,7 @@
         <v>109</v>
       </c>
       <c r="H13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
         <v>10</v>
@@ -1831,7 +1834,7 @@
         <v>110</v>
       </c>
       <c r="H14" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="I14" t="s">
         <v>10</v>
@@ -1875,7 +1878,7 @@
         <v>111</v>
       </c>
       <c r="H15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="I15" t="s">
         <v>10</v>
@@ -1919,7 +1922,7 @@
         <v>112</v>
       </c>
       <c r="H16" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I16" t="s">
         <v>10</v>
@@ -1954,7 +1957,7 @@
         <v>91</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F17" t="s">
         <v>169</v>
@@ -1963,7 +1966,7 @@
         <v>119</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I17" t="s">
         <v>95</v>
@@ -2007,7 +2010,7 @@
         <v>120</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="I18" t="s">
         <v>95</v>
@@ -2051,7 +2054,7 @@
         <v>121</v>
       </c>
       <c r="H19" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I19" t="s">
         <v>95</v>
@@ -2095,7 +2098,7 @@
         <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I20" t="s">
         <v>10</v>
@@ -2151,19 +2154,19 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F22" t="s">
         <v>169</v>
       </c>
       <c r="G22" t="s">
-        <v>6</v>
+        <v>214</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I22" t="s">
         <v>10</v>
@@ -2192,28 +2195,28 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" t="s">
         <v>177</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>178</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>179</v>
       </c>
-      <c r="D23" t="s">
-        <v>180</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F23" t="s">
         <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I23" t="s">
         <v>10</v>
@@ -2236,28 +2239,28 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
         <v>182</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
+        <v>178</v>
+      </c>
+      <c r="D24" t="s">
         <v>183</v>
       </c>
-      <c r="C24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24" t="s">
-        <v>184</v>
-      </c>
       <c r="E24" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
         <v>169</v>
       </c>
       <c r="G24" t="s">
+        <v>184</v>
+      </c>
+      <c r="H24" t="s">
         <v>185</v>
-      </c>
-      <c r="H24" t="s">
-        <v>186</v>
       </c>
       <c r="I24" t="s">
         <v>95</v>
